--- a/Designdoc/0.1/EVECard-角色POS相关.xlsx
+++ b/Designdoc/0.1/EVECard-角色POS相关.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20940" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20940" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="POS说明" sheetId="1" r:id="rId1"/>
-    <sheet name="类型" sheetId="2" r:id="rId2"/>
+    <sheet name="POS种类" sheetId="2" r:id="rId2"/>
+    <sheet name="POS装备" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,129 +26,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>除非是标注的特点，否则其他一律按照一般规则执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加达里POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得固定 2 ISK，并抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些槽位只能安装对应的装备牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽位已安装装备牌时，可以进行覆盖安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击毁/覆盖的装备会移出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS 装备可被攻击，攻击距离为1的舰船也可以攻击到POS装备，因此，POS装备默认与对面所有舰船攻击距离为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS（玩家）与所有敌舰攻击距离为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>武器阵列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合可指定目标敌舰攻击一次（不能为玩家POS及其装备），无攻击距离限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卫星开采阵列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始获得额外ISK收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>储物仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>除非是标注的特点，否则其他一律按照一般规则执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高手牌上限 or 额外抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS的装备卡牌可以赋予POS额外的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有效值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加达里POS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合获得固定 2 ISK，并抽一张牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有POS在游戏开始的装备槽位都是空的，但是数量不尽相同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS 用装备卡牌可以赋予POS额外的效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加达里POS在游戏开始时拥有5个装备空槽位，种类分别是2个武器阵列槽，2个卫星开采阵列槽，1个储物仓槽。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些槽位只能安装对应的装备牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽位已安装装备牌时，可以进行覆盖安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击毁/覆盖的装备会移出游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS 装备可被攻击，攻击距离为1的舰船也可以攻击到POS装备，因此，POS装备默认与对面所有舰船攻击距离为1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS（玩家）与所有敌舰攻击距离为1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE无法伤害POS装备牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物舱槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星开采阵列槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器阵列槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加达里POS在游戏开始时拥有5个装备空槽位，种类分别是2个武器阵列槽，2个卫星开采阵列槽，1个储物舱槽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特有加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加达里控制塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始获得 2 ISK并抽取 1 张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器阵列数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星开采阵列数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物舱数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS在游戏开始时装备槽位都是空的，但是数量不尽相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE伤害型卡牌无法伤害POS装备牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装备POS武器阵列的当前回合不可攻击，需要准备一回合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS装备牌分类：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器阵列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合可指定目标敌舰攻击一次（不能为玩家POS及其装备），无攻击距离限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫星开采阵列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始获得额外ISK收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储物仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高手牌上限 or 额外抽牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS装备牌分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用简述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,29 +198,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,18 +241,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -560,154 +723,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="23">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -715,7 +1154,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>